--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2648.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2648.xlsx
@@ -354,7 +354,7 @@
         <v>1.51849300143233</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.395057149308101</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2648.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2648.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8386441799565262</v>
+        <v>2.112518548965454</v>
       </c>
       <c r="B1">
-        <v>1.51849300143233</v>
+        <v>2.482971668243408</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.493942975997925</v>
       </c>
       <c r="D1">
-        <v>1.395057149308101</v>
+        <v>2.860424518585205</v>
       </c>
       <c r="E1">
-        <v>0.8542692180663655</v>
+        <v>0.5695806741714478</v>
       </c>
     </row>
   </sheetData>
